--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ip-группы</t>
   </si>
@@ -27,9 +27,6 @@
     <t xml:space="preserve">222.2.140.100 </t>
   </si>
   <si>
-    <t>*03</t>
-  </si>
-  <si>
     <t>тип</t>
   </si>
   <si>
@@ -46,12 +43,45 @@
   </si>
   <si>
     <t>серверная</t>
+  </si>
+  <si>
+    <t>103, 202, 303, 403</t>
+  </si>
+  <si>
+    <t>105, 405</t>
+  </si>
+  <si>
+    <t>106, 406</t>
+  </si>
+  <si>
+    <t>101, 206, 302, 401</t>
+  </si>
+  <si>
+    <t>кладовая</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>длина</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>площадь</t>
+  </si>
+  <si>
+    <t>рабочие места</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -77,12 +107,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,17 +548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -411,10 +575,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -422,26 +586,37 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -451,13 +626,937 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>101</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2*$C$2</f>
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D15" si="0">B3*$C$2</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>52.199999999999996</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E13" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>114</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f>SUM(B2:B15)</f>
+        <v>82.899999999999991</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16">
+        <f>SUM(D2:D15)</f>
+        <v>497.40000000000003</v>
+      </c>
+      <c r="E16" s="17">
+        <f>SUM(E2:E15)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>201</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <f>B18*$C$2</f>
+        <v>53.820000000000007</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>202</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <f>B19*$C$2</f>
+        <v>53.820000000000007</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>203</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8.74</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <f>B20*$C$2</f>
+        <v>52.44</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>204</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.44</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <f>B21*$C$2</f>
+        <v>38.64</v>
+      </c>
+      <c r="E21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>205</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <f>B22*$C$2</f>
+        <v>34.5</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>206</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <f>B23*$C$2</f>
+        <v>18</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>207</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <f>B24*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E24" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>208</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <f>B25*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>209</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <f>B26*$C$2</f>
+        <v>18</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>210</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <f>B27*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E27" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>211</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <f>B28*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E28" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>212</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <f>B29*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E29" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>213</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <f>B30*$C$2</f>
+        <v>53.820000000000007</v>
+      </c>
+      <c r="E30" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f>SUM(B18:B30)</f>
+        <v>83.84</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16">
+        <f>SUM(D18:D30)</f>
+        <v>503.04</v>
+      </c>
+      <c r="E31" s="17">
+        <f>SUM(E18:E30)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>301</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <f>B33*$C$2</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>302</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <f>B34*$C$2</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>303</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>B35*$C$2</f>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>304</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>B36*$C$2</f>
+        <v>30</v>
+      </c>
+      <c r="E36" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>305</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <f>B37*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E37" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>306</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <f>B38*$C$2</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E38" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>307</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <f>B39*$C$2</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>308</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <f>B40*$C$2</f>
+        <v>36</v>
+      </c>
+      <c r="E40" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>309</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <f>B41*$C$2</f>
+        <v>35.400000000000006</v>
+      </c>
+      <c r="E41" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>310</v>
+      </c>
+      <c r="B42" s="3">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <f>B42*$C$2</f>
+        <v>54</v>
+      </c>
+      <c r="E42" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>311</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <f>B43*$C$2</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E43" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>312</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <f>B44*$C$2</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E44" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>313</v>
+      </c>
+      <c r="B45" s="3">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <f>B45*$C$2</f>
+        <v>54</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>314</v>
+      </c>
+      <c r="B46" s="3">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
+        <f>B46*$C$2</f>
+        <v>54</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f>SUM(B33:B46)</f>
+        <v>82</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16">
+        <f>SUM(D33:D46)</f>
+        <v>492</v>
+      </c>
+      <c r="E47" s="17">
+        <f>SUM(E33:E46)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>401</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <f>B49*$C$2</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="E49" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>402</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <f>B50*$C$2</f>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="E50" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>403</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51:D58" si="1">B51*$C$2</f>
+        <v>53.820000000000007</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>404</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8.74</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>52.44</v>
+      </c>
+      <c r="E52" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>405</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>22.080000000000002</v>
+      </c>
+      <c r="E53" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>406</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>407</v>
+      </c>
+      <c r="B55" s="3">
+        <v>8.74</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>52.44</v>
+      </c>
+      <c r="E55" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>408</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>409</v>
+      </c>
+      <c r="B57" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>410</v>
+      </c>
+      <c r="B58" s="3">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>411</v>
+      </c>
+      <c r="B59" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12">
+        <f>B59*$C$2</f>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f>SUM(B49:B59)</f>
+        <v>84.26</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16">
+        <f>SUM(D49:D59)</f>
+        <v>505.56</v>
+      </c>
+      <c r="E60" s="17">
+        <f>SUM(E49:E59)</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>102</v>
       </c>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>103</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>104</v>
       </c>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>105</v>
       </c>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>106</v>
       </c>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>107</v>
       </c>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>108</v>
       </c>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>109</v>
       </c>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>110</v>
       </c>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>111</v>
       </c>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>112</v>
       </c>
@@ -847,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>113</v>
       </c>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>114</v>
       </c>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15">
         <f>SUM(B2:B15)</f>
@@ -894,9 +894,15 @@
         <f>SUM(E2:E15)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>201</v>
       </c>
@@ -905,14 +911,14 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
-        <f>B18*$C$2</f>
+        <f t="shared" ref="D18:D30" si="1">B18*$C$2</f>
         <v>53.820000000000007</v>
       </c>
       <c r="E18" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -921,14 +927,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <f>B19*$C$2</f>
+        <f t="shared" si="1"/>
         <v>53.820000000000007</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>203</v>
       </c>
@@ -937,14 +943,14 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <f>B20*$C$2</f>
+        <f t="shared" si="1"/>
         <v>52.44</v>
       </c>
       <c r="E20" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>204</v>
       </c>
@@ -953,14 +959,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <f>B21*$C$2</f>
+        <f t="shared" si="1"/>
         <v>38.64</v>
       </c>
       <c r="E21" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>205</v>
       </c>
@@ -969,14 +975,14 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <f>B22*$C$2</f>
+        <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
       <c r="E22" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>206</v>
       </c>
@@ -985,14 +991,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <f>B23*$C$2</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E23" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>207</v>
       </c>
@@ -1001,14 +1007,14 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <f>B24*$C$2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E24" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>208</v>
       </c>
@@ -1017,14 +1023,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <f>B25*$C$2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E25" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>209</v>
       </c>
@@ -1033,14 +1039,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <f>B26*$C$2</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E26" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>210</v>
       </c>
@@ -1049,14 +1055,14 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <f>B27*$C$2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E27" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>211</v>
       </c>
@@ -1065,14 +1071,14 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <f>B28*$C$2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E28" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>212</v>
       </c>
@@ -1081,14 +1087,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <f>B29*$C$2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E29" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>213</v>
       </c>
@@ -1097,14 +1103,14 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <f>B30*$C$2</f>
+        <f t="shared" si="1"/>
         <v>53.820000000000007</v>
       </c>
       <c r="E30" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15">
         <f>SUM(B18:B30)</f>
@@ -1119,9 +1125,15 @@
         <f>SUM(E18:E30)</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>301</v>
       </c>
@@ -1130,14 +1142,14 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6">
-        <f>B33*$C$2</f>
+        <f t="shared" ref="D33:D46" si="2">B33*$C$2</f>
         <v>34.799999999999997</v>
       </c>
       <c r="E33" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>302</v>
       </c>
@@ -1146,14 +1158,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <f>B34*$C$2</f>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E34" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>303</v>
       </c>
@@ -1162,14 +1174,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <f>B35*$C$2</f>
+        <f t="shared" si="2"/>
         <v>55.199999999999996</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>304</v>
       </c>
@@ -1178,14 +1190,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>B36*$C$2</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E36" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>305</v>
       </c>
@@ -1194,14 +1206,14 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <f>B37*$C$2</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E37" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>306</v>
       </c>
@@ -1210,14 +1222,14 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <f>B38*$C$2</f>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E38" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>307</v>
       </c>
@@ -1226,14 +1238,14 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <f>B39*$C$2</f>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E39" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>308</v>
       </c>
@@ -1242,14 +1254,14 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
-        <f>B40*$C$2</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E40" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>309</v>
       </c>
@@ -1258,14 +1270,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <f>B41*$C$2</f>
+        <f t="shared" si="2"/>
         <v>35.400000000000006</v>
       </c>
       <c r="E41" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>310</v>
       </c>
@@ -1274,14 +1286,14 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
-        <f>B42*$C$2</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E42" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>311</v>
       </c>
@@ -1290,14 +1302,14 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
-        <f>B43*$C$2</f>
+        <f t="shared" si="2"/>
         <v>34.200000000000003</v>
       </c>
       <c r="E43" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>312</v>
       </c>
@@ -1306,14 +1318,14 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <f>B44*$C$2</f>
+        <f t="shared" si="2"/>
         <v>16.200000000000003</v>
       </c>
       <c r="E44" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>313</v>
       </c>
@@ -1322,14 +1334,14 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <f>B45*$C$2</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E45" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>314</v>
       </c>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
-        <f>B46*$C$2</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E46" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="15">
         <f>SUM(B33:B46)</f>
@@ -1360,9 +1372,15 @@
         <f>SUM(E33:E46)</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>401</v>
       </c>
@@ -1378,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>402</v>
       </c>
@@ -1394,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>403</v>
       </c>
@@ -1403,14 +1421,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <f t="shared" ref="D51:D58" si="1">B51*$C$2</f>
+        <f t="shared" ref="D51:D58" si="3">B51*$C$2</f>
         <v>53.820000000000007</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>404</v>
       </c>
@@ -1419,14 +1437,14 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.44</v>
       </c>
       <c r="E52" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>405</v>
       </c>
@@ -1435,14 +1453,14 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.080000000000002</v>
       </c>
       <c r="E53" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>406</v>
       </c>
@@ -1451,14 +1469,14 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.559999999999999</v>
       </c>
       <c r="E54" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>407</v>
       </c>
@@ -1467,14 +1485,14 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.44</v>
       </c>
       <c r="E55" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>408</v>
       </c>
@@ -1483,14 +1501,14 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>409</v>
       </c>
@@ -1499,14 +1517,14 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55.199999999999996</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>410</v>
       </c>
@@ -1515,14 +1533,14 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>411</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="15">
         <f>SUM(B49:B59)</f>
@@ -1552,6 +1570,26 @@
       <c r="E60" s="17">
         <f>SUM(E49:E59)</f>
         <v>44</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f>E60+E47+E16+E31</f>
+        <v>280</v>
+      </c>
+      <c r="F63">
+        <f>E47+F47+E60+F60+E16+F16+E31+F31</f>
+        <v>304</v>
+      </c>
+      <c r="G63">
+        <f>E47+F47+E60+F60+E16+F16+E31+F31+G60+G47+G31+G16</f>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ip-группы</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>основной шлюз</t>
   </si>
@@ -27,52 +24,202 @@
     <t xml:space="preserve">222.2.140.100 </t>
   </si>
   <si>
-    <t>тип</t>
-  </si>
-  <si>
-    <t>столовая/буфет</t>
-  </si>
-  <si>
-    <t>*08,*09,*11,*12</t>
-  </si>
-  <si>
-    <t>администраторская</t>
-  </si>
-  <si>
-    <t>рабочие кабинеты</t>
-  </si>
-  <si>
-    <t>серверная</t>
-  </si>
-  <si>
-    <t>103, 202, 303, 403</t>
-  </si>
-  <si>
-    <t>105, 405</t>
-  </si>
-  <si>
-    <t>106, 406</t>
-  </si>
-  <si>
-    <t>101, 206, 302, 401</t>
-  </si>
-  <si>
-    <t>кладовая</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>длина</t>
-  </si>
-  <si>
-    <t>ширина</t>
-  </si>
-  <si>
-    <t>площадь</t>
-  </si>
-  <si>
-    <t>рабочие места</t>
+    <t>Выделенные ip адреса</t>
+  </si>
+  <si>
+    <t>Назначение помещения</t>
+  </si>
+  <si>
+    <t>Хоз комната для уборки</t>
+  </si>
+  <si>
+    <t>Склад техники</t>
+  </si>
+  <si>
+    <t>Столовая</t>
+  </si>
+  <si>
+    <t>Администраторская</t>
+  </si>
+  <si>
+    <t>Серверная</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Архив</t>
+  </si>
+  <si>
+    <t>Комната отдыха</t>
+  </si>
+  <si>
+    <t>Коммутационные розетки</t>
+  </si>
+  <si>
+    <t>Финансовый директор</t>
+  </si>
+  <si>
+    <t>Кабинет директора</t>
+  </si>
+  <si>
+    <t>Рабочая комната</t>
+  </si>
+  <si>
+    <t>Отдел кадров</t>
+  </si>
+  <si>
+    <t>Конференц-зал</t>
+  </si>
+  <si>
+    <t>Переговорная</t>
+  </si>
+  <si>
+    <t>Номер рабочей группы</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>№ комнаты</t>
+  </si>
+  <si>
+    <t>Длина</t>
+  </si>
+  <si>
+    <t>Ширина</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Резерв</t>
+  </si>
+  <si>
+    <t>192.168.51.1/24</t>
+  </si>
+  <si>
+    <t>192.168.52.1/24</t>
+  </si>
+  <si>
+    <t>192.168.53.1/24</t>
+  </si>
+  <si>
+    <t>192.168.54.1/24</t>
+  </si>
+  <si>
+    <t>192.168.101.1/24</t>
+  </si>
+  <si>
+    <t>192.168.101.2/24</t>
+  </si>
+  <si>
+    <t>192.168.102.1/24</t>
+  </si>
+  <si>
+    <t>192.168.102.2/24</t>
+  </si>
+  <si>
+    <t>192.168.103.1/24</t>
+  </si>
+  <si>
+    <t>192.168.103.2/24</t>
+  </si>
+  <si>
+    <t>192.168.104.1/24</t>
+  </si>
+  <si>
+    <t>192.168.104.2/24</t>
+  </si>
+  <si>
+    <t>192.168.11.1-10/24</t>
+  </si>
+  <si>
+    <t>192.168.11.11-16/24</t>
+  </si>
+  <si>
+    <t>192.168.11.17-22/24</t>
+  </si>
+  <si>
+    <t>192.168.11.23-38/24</t>
+  </si>
+  <si>
+    <t>192.168.11.29-33/24</t>
+  </si>
+  <si>
+    <t>192.168.11.34-43/24</t>
+  </si>
+  <si>
+    <t>192.168.22.1-10/24</t>
+  </si>
+  <si>
+    <t>192.168.22.11-17/24</t>
+  </si>
+  <si>
+    <t>192.168.22.18-23/24</t>
+  </si>
+  <si>
+    <t>192.168.22.24-29/24</t>
+  </si>
+  <si>
+    <t>192.168.22.30-35/24</t>
+  </si>
+  <si>
+    <t>192.168.22.36-41/24</t>
+  </si>
+  <si>
+    <t>192.168.22.42-47/24</t>
+  </si>
+  <si>
+    <t>192.168.22.48-57/24</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>192.168.33.1-6/24</t>
+  </si>
+  <si>
+    <t>192.168.33.7-11/24</t>
+  </si>
+  <si>
+    <t>192.168.33.12-17/24</t>
+  </si>
+  <si>
+    <t>192.168.33.18-20/24</t>
+  </si>
+  <si>
+    <t>192.168.33.21-26/24</t>
+  </si>
+  <si>
+    <t>192.168.33.27-36/24</t>
+  </si>
+  <si>
+    <t>192.168.33.37-46/24</t>
+  </si>
+  <si>
+    <t>192.168.61.1-3/24</t>
+  </si>
+  <si>
+    <t>192.168.62.1-3/24</t>
+  </si>
+  <si>
+    <t>192.168.63.1/24</t>
+  </si>
+  <si>
+    <t>192.168.74.1-2/24</t>
+  </si>
+  <si>
+    <t>192.168.84.1-2/24</t>
+  </si>
+  <si>
+    <t>192.168.94.1-2/14</t>
+  </si>
+  <si>
+    <t>192.168.84.4-5/24</t>
+  </si>
+  <si>
+    <t>192.168.94.4-5/14</t>
   </si>
 </sst>
 </file>
@@ -228,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -240,13 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,62 +711,8 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,38 +721,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>101</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="16">
         <v>3.5</v>
       </c>
       <c r="C2" s="5">
@@ -668,14 +787,32 @@
         <v>21</v>
       </c>
       <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>102</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="17">
         <v>5.8</v>
       </c>
       <c r="C3" s="3"/>
@@ -684,14 +821,23 @@
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>103</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="17">
         <v>9.1999999999999993</v>
       </c>
       <c r="C4" s="3"/>
@@ -702,12 +848,21 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>104</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="17">
         <v>8.5</v>
       </c>
       <c r="C5" s="3"/>
@@ -716,14 +871,23 @@
         <v>51</v>
       </c>
       <c r="E5" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>105</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="17">
         <v>3.7</v>
       </c>
       <c r="C6" s="3"/>
@@ -732,14 +896,23 @@
         <v>22.200000000000003</v>
       </c>
       <c r="E6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>106</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="17">
         <v>2.5</v>
       </c>
       <c r="C7" s="3"/>
@@ -750,12 +923,21 @@
       <c r="E7" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>107</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="17">
         <v>8.6999999999999993</v>
       </c>
       <c r="C8" s="3"/>
@@ -766,12 +948,21 @@
       <c r="E8" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>108</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="17">
         <v>5.8</v>
       </c>
       <c r="C9" s="3"/>
@@ -782,12 +973,21 @@
       <c r="E9" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>109</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="17">
         <v>5.8</v>
       </c>
       <c r="C10" s="3"/>
@@ -796,14 +996,23 @@
         <v>34.799999999999997</v>
       </c>
       <c r="E10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>110</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="17">
         <v>2.8</v>
       </c>
       <c r="C11" s="3"/>
@@ -812,14 +1021,23 @@
         <v>16.799999999999997</v>
       </c>
       <c r="E11" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>111</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="17">
         <v>5.8</v>
       </c>
       <c r="C12" s="3"/>
@@ -830,12 +1048,21 @@
       <c r="E12" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>112</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="17">
         <v>5.8</v>
       </c>
       <c r="C13" s="3"/>
@@ -846,12 +1073,21 @@
       <c r="E13" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>113</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="17">
         <v>5.8</v>
       </c>
       <c r="C14" s="3"/>
@@ -862,12 +1098,21 @@
       <c r="E14" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>114</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="17">
         <v>9.1999999999999993</v>
       </c>
       <c r="C15" s="3"/>
@@ -878,147 +1123,227 @@
       <c r="E15" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="19">
         <f>SUM(B2:B15)</f>
         <v>82.899999999999991</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
         <f>SUM(D2:D15)</f>
         <v>497.40000000000003</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f>SUM(E2:E15)</f>
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>201</v>
+      </c>
+      <c r="B19" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:D31" si="1">B19*$C$2</f>
+        <v>53.820000000000007</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>201</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>202</v>
+      </c>
+      <c r="B20" s="17">
         <v>8.9700000000000006</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18:D30" si="1">B18*$C$2</f>
-        <v>53.820000000000007</v>
-      </c>
-      <c r="E18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>202</v>
-      </c>
-      <c r="B19" s="3">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>53.820000000000007</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>203</v>
-      </c>
-      <c r="B20" s="3">
-        <v>8.74</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>52.44</v>
+        <v>53.820000000000007</v>
       </c>
       <c r="E20" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>204</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6.44</v>
+        <v>203</v>
+      </c>
+      <c r="B21" s="17">
+        <v>8.74</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>38.64</v>
+        <v>52.44</v>
       </c>
       <c r="E21" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>205</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.75</v>
+        <v>204</v>
+      </c>
+      <c r="B22" s="17">
+        <v>6.44</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>34.5</v>
+        <v>38.64</v>
       </c>
       <c r="E22" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>206</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
+        <v>205</v>
+      </c>
+      <c r="B23" s="17">
+        <v>5.75</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>34.5</v>
       </c>
       <c r="E23" s="9">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>206</v>
+      </c>
+      <c r="B24" s="17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>207</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E24" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>208</v>
-      </c>
-      <c r="B25" s="3">
+        <v>207</v>
+      </c>
+      <c r="B25" s="17">
         <v>6</v>
       </c>
       <c r="C25" s="2"/>
@@ -1029,44 +1354,71 @@
       <c r="E25" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>209</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
+        <v>208</v>
+      </c>
+      <c r="B26" s="17">
+        <v>6</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>209</v>
+      </c>
+      <c r="B27" s="17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>210</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E27" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>211</v>
-      </c>
-      <c r="B28" s="3">
+        <v>210</v>
+      </c>
+      <c r="B28" s="17">
         <v>6</v>
       </c>
       <c r="C28" s="2"/>
@@ -1077,12 +1429,21 @@
       <c r="E28" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>212</v>
-      </c>
-      <c r="B29" s="3">
+        <v>211</v>
+      </c>
+      <c r="B29" s="17">
         <v>6</v>
       </c>
       <c r="C29" s="2"/>
@@ -1093,394 +1454,608 @@
       <c r="E29" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>213</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8.9700000000000006</v>
+        <v>212</v>
+      </c>
+      <c r="B30" s="17">
+        <v>6</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E30" s="9">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>213</v>
+      </c>
+      <c r="B31" s="17">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
         <v>53.820000000000007</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15">
-        <f>SUM(B18:B30)</f>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19">
+        <f>SUM(B19:B31)</f>
         <v>83.84</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16">
-        <f>SUM(D18:D30)</f>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14">
+        <f>SUM(D19:D31)</f>
         <v>503.04</v>
       </c>
-      <c r="E31" s="17">
-        <f>SUM(E18:E30)</f>
-        <v>79</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
+      <c r="E32" s="15">
+        <f>SUM(E19:E31)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>301</v>
+      </c>
+      <c r="B35" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <f t="shared" ref="D35:D48" si="2">B35*$C$2</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>301</v>
-      </c>
-      <c r="B33" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6">
-        <f t="shared" ref="D33:D46" si="2">B33*$C$2</f>
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E33" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>302</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B36" s="17">
         <v>2.9</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>303</v>
-      </c>
-      <c r="B35" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f t="shared" si="2"/>
-        <v>55.199999999999996</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>304</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E36" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>305</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6</v>
+        <v>303</v>
+      </c>
+      <c r="B37" s="17">
+        <v>9.1999999999999993</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>55.199999999999996</v>
       </c>
       <c r="E37" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>306</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2.9</v>
+        <v>304</v>
+      </c>
+      <c r="B38" s="17">
+        <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>30</v>
       </c>
       <c r="E38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>307</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2.9</v>
+        <v>305</v>
+      </c>
+      <c r="B39" s="17">
+        <v>6</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>36</v>
       </c>
       <c r="E39" s="9">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>308</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2.9</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E40" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>309</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5.9</v>
+        <v>307</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2.9</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
-        <v>35.400000000000006</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E41" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>310</v>
-      </c>
-      <c r="B42" s="3">
-        <v>9</v>
+        <v>308</v>
+      </c>
+      <c r="B42" s="17">
+        <v>6</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>311</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5.7</v>
+        <v>309</v>
+      </c>
+      <c r="B43" s="17">
+        <v>5.9</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>35.400000000000006</v>
       </c>
       <c r="E43" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>312</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2.7</v>
+        <v>310</v>
+      </c>
+      <c r="B44" s="17">
+        <v>9</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
         <f t="shared" si="2"/>
-        <v>16.200000000000003</v>
+        <v>54</v>
       </c>
       <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>313</v>
-      </c>
-      <c r="B45" s="3">
-        <v>9</v>
+        <v>311</v>
+      </c>
+      <c r="B45" s="17">
+        <v>5.7</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E45" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <v>314</v>
-      </c>
-      <c r="B46" s="3">
-        <v>9</v>
+        <v>312</v>
+      </c>
+      <c r="B46" s="17">
+        <v>2.7</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
         <f t="shared" si="2"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>313</v>
+      </c>
+      <c r="B47" s="17">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15">
-        <f>SUM(B33:B46)</f>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>314</v>
+      </c>
+      <c r="B48" s="18">
+        <v>9</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="18">
+        <f>SUM(B35:B48)</f>
         <v>82</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16">
-        <f>SUM(D33:D46)</f>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
+        <f>SUM(D35:D48)</f>
         <v>492</v>
       </c>
-      <c r="E47" s="17">
-        <f>SUM(E33:E46)</f>
-        <v>77</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47">
+      <c r="E49" s="12">
+        <f>SUM(E35:E48)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>401</v>
+      </c>
+      <c r="B52" s="16">
+        <v>3.45</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <f>B52*$C$2</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>401</v>
-      </c>
-      <c r="B49" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6">
-        <f>B49*$C$2</f>
-        <v>20.700000000000003</v>
-      </c>
-      <c r="E49" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>402</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B53" s="17">
         <v>5.52</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <f>B50*$C$2</f>
-        <v>33.119999999999997</v>
-      </c>
-      <c r="E50" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>403</v>
-      </c>
-      <c r="B51" s="3">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <f t="shared" ref="D51:D58" si="3">B51*$C$2</f>
-        <v>53.820000000000007</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>404</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8.74</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <f t="shared" si="3"/>
-        <v>52.44</v>
-      </c>
-      <c r="E52" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>405</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3.68</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <f t="shared" si="3"/>
-        <v>22.080000000000002</v>
+        <f>B53*$C$2</f>
+        <v>33.119999999999997</v>
       </c>
       <c r="E53" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>406</v>
-      </c>
-      <c r="B54" s="3">
-        <v>2.76</v>
+        <v>403</v>
+      </c>
+      <c r="B54" s="17">
+        <v>8.9700000000000006</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <f t="shared" si="3"/>
-        <v>16.559999999999999</v>
+        <f t="shared" ref="D54:D61" si="3">B54*$C$2</f>
+        <v>53.820000000000007</v>
       </c>
       <c r="E54" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>407</v>
-      </c>
-      <c r="B55" s="3">
+        <v>404</v>
+      </c>
+      <c r="B55" s="17">
         <v>8.74</v>
       </c>
       <c r="C55" s="2"/>
@@ -1489,107 +2064,223 @@
         <v>52.44</v>
       </c>
       <c r="E55" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>408</v>
-      </c>
-      <c r="B56" s="3">
-        <v>12</v>
+        <v>405</v>
+      </c>
+      <c r="B56" s="17">
+        <v>3.68</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>22.080000000000002</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>409</v>
-      </c>
-      <c r="B57" s="3">
-        <v>9.1999999999999993</v>
+        <v>406</v>
+      </c>
+      <c r="B57" s="17">
+        <v>2.76</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
         <f t="shared" si="3"/>
-        <v>55.199999999999996</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="E57" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>410</v>
-      </c>
-      <c r="B58" s="3">
-        <v>12</v>
+        <v>407</v>
+      </c>
+      <c r="B58" s="17">
+        <v>8.74</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
         <f t="shared" si="3"/>
+        <v>52.44</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>408</v>
+      </c>
+      <c r="B59" s="17">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E58" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>409</v>
+      </c>
+      <c r="B60" s="17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <f t="shared" si="3"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="E60" s="9">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>410</v>
+      </c>
+      <c r="B61" s="17">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>411</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B62" s="17">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12">
-        <f>B59*$C$2</f>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11">
+        <f>B62*$C$2</f>
         <v>55.199999999999996</v>
       </c>
-      <c r="E59" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15">
-        <f>SUM(B49:B59)</f>
+      <c r="E62" s="12">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="19">
+        <f>SUM(B52:B62)</f>
         <v>84.26</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16">
-        <f>SUM(D49:D59)</f>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14">
+        <f>SUM(D52:D62)</f>
         <v>505.56</v>
       </c>
-      <c r="E60" s="17">
-        <f>SUM(E49:E59)</f>
-        <v>44</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E63">
-        <f>E60+E47+E16+E31</f>
-        <v>280</v>
-      </c>
-      <c r="F63">
-        <f>E47+F47+E60+F60+E16+F16+E31+F31</f>
-        <v>304</v>
-      </c>
-      <c r="G63">
-        <f>E47+F47+E60+F60+E16+F16+E31+F31+G60+G47+G31+G16</f>
-        <v>344</v>
+      <c r="E63" s="15">
+        <f>SUM(E52:E62)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f>E63+E49+E16+E32</f>
+        <v>195</v>
+      </c>
+      <c r="F66">
+        <f>E49+F35+E63+F52+E16+F2+E32+F19</f>
+        <v>219</v>
+      </c>
+      <c r="G66">
+        <f>E49+F35+E63+F52+E16+F2+E32+F19+G52+G35+G19+G2</f>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
     <t>основной шлюз</t>
   </si>
@@ -220,6 +220,54 @@
   </si>
   <si>
     <t>192.168.94.4-5/14</t>
+  </si>
+  <si>
+    <t>Стоимость сетевого оборудования</t>
+  </si>
+  <si>
+    <t>1 этаж</t>
+  </si>
+  <si>
+    <t>2 этаж</t>
+  </si>
+  <si>
+    <t>3 этаж</t>
+  </si>
+  <si>
+    <t>4 этаж</t>
+  </si>
+  <si>
+    <t>Роутер</t>
+  </si>
+  <si>
+    <t>Свич</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>Трансиверы</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>GLC-FE-100EX=</t>
+  </si>
+  <si>
+    <t>Маршрутизатор Cisco CISCO2901/K9</t>
+  </si>
+  <si>
+    <t>Коммутатор Cisco Catalyst 3750-X WS-C3750X-48T-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабель </t>
+  </si>
+  <si>
+    <t>Оптоволокно</t>
   </si>
 </sst>
 </file>
@@ -229,12 +277,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,10 +436,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -396,8 +461,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1150,6 +1255,14 @@
         <f>SUM(E2:E15)</f>
         <v>54</v>
       </c>
+      <c r="F16">
+        <f>E16+F2</f>
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <f>F16+G2</f>
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1199,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1531,6 +1644,14 @@
         <f>SUM(E19:E31)</f>
         <v>64</v>
       </c>
+      <c r="F32">
+        <f>E32+F19</f>
+        <v>66</v>
+      </c>
+      <c r="G32">
+        <f>F32+G19</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1580,10 +1701,10 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -1937,6 +2058,14 @@
         <f>SUM(E35:E48)</f>
         <v>59</v>
       </c>
+      <c r="F49">
+        <f>E49+F35</f>
+        <v>61</v>
+      </c>
+      <c r="G49">
+        <f>F49+G35</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1986,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2268,24 +2397,278 @@
         <f>SUM(E52:E62)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>E63+F52</f>
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <f>F63+G52</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E66">
         <f>E63+E49+E16+E32</f>
         <v>195</v>
       </c>
       <c r="F66">
-        <f>E49+F35+E63+F52+E16+F2+E32+F19</f>
-        <v>219</v>
+        <f>F63+F49+F32+F16</f>
+        <v>203</v>
       </c>
       <c r="G66">
-        <f>E49+F35+E63+F52+E16+F2+E32+F19+G52+G35+G19+G2</f>
-        <v>259</v>
-      </c>
+        <f>G63+G49+G32+G16</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N67" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+      <c r="G69" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="23"/>
+      <c r="I69" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" s="23"/>
+      <c r="K69" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L69" s="23"/>
+      <c r="M69" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N69" s="23"/>
+      <c r="O69" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="8"/>
+      <c r="G70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2</v>
+      </c>
+      <c r="H71" s="24">
+        <v>171000</v>
+      </c>
+      <c r="I71" s="8">
+        <v>1</v>
+      </c>
+      <c r="J71" s="33">
+        <v>81875</v>
+      </c>
+      <c r="K71" s="8">
+        <v>5</v>
+      </c>
+      <c r="L71" s="24">
+        <v>16280</v>
+      </c>
+      <c r="M71" s="8"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="30"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2</v>
+      </c>
+      <c r="H72" s="24"/>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="33"/>
+      <c r="K72" s="8">
+        <v>1</v>
+      </c>
+      <c r="L72" s="24"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="30"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="8">
+        <v>2</v>
+      </c>
+      <c r="H73" s="24"/>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="33"/>
+      <c r="K73" s="8">
+        <v>1</v>
+      </c>
+      <c r="L73" s="24"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="30"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F74" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
+      <c r="H74" s="24"/>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="33"/>
+      <c r="K74" s="8">
+        <v>1</v>
+      </c>
+      <c r="L74" s="24"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="30"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="10">
+        <f>SUM(G71:G74)</f>
+        <v>7</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="10">
+        <f>SUM(I71:I74)</f>
+        <v>1</v>
+      </c>
+      <c r="J75" s="34"/>
+      <c r="K75" s="10">
+        <f>SUM(K71:K74)</f>
+        <v>8</v>
+      </c>
+      <c r="L75" s="29"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="31"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="12">
+        <f>G75*H71</f>
+        <v>1197000</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="12">
+        <f>I75*J71</f>
+        <v>81875</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="12">
+        <f>K75*L71</f>
+        <v>130240</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N77" s="2">
+        <f>H76+J76+L76</f>
+        <v>1409115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="25"/>
+      <c r="K78" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L78" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="N71:N75"/>
+    <mergeCell ref="P71:P75"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="L71:L75"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K78" r:id="rId1" tooltip="Трансивер Cisco GLC-FE-100EX=" display="http://cisco.msk.ru/aktivnoe-oborudovanie/setevye-transivernye-moduli/GLC-FE-100EX="/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
   <si>
     <t>основной шлюз</t>
   </si>
@@ -204,9 +204,6 @@
     <t>192.168.62.1-3/24</t>
   </si>
   <si>
-    <t>192.168.63.1/24</t>
-  </si>
-  <si>
     <t>192.168.74.1-2/24</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>GLC-FE-100EX=</t>
-  </si>
-  <si>
     <t>Маршрутизатор Cisco CISCO2901/K9</t>
   </si>
   <si>
@@ -268,6 +262,30 @@
   </si>
   <si>
     <t>Оптоволокно</t>
+  </si>
+  <si>
+    <t>GLC-FE-100EX</t>
+  </si>
+  <si>
+    <t>192.168.64.1/24</t>
+  </si>
+  <si>
+    <t>Политика безопасности</t>
+  </si>
+  <si>
+    <t>все группы</t>
+  </si>
+  <si>
+    <t>группа 1, 2, 3</t>
+  </si>
+  <si>
+    <t>группа 5</t>
+  </si>
+  <si>
+    <t>группа 6, 7</t>
+  </si>
+  <si>
+    <t>группа 8, 9</t>
   </si>
 </sst>
 </file>
@@ -277,28 +295,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -435,14 +437,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -461,12 +500,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,35 +535,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,34 +862,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39">
+        <v>171000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>81875</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="39">
+        <v>16280</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="39">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="28">
+        <f>$C$3*B3+$E$3*D3+$G$3*F3+$I$3*H3+$K$3*J3</f>
+        <v>518487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="7">
+        <v>1085.8</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="28">
+        <f t="shared" ref="L4:L6" si="0">$C$3*B4+$E$3*D4+$G$3*F4+$I$3*H4+$K$3*J4</f>
+        <v>371309.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="7">
+        <v>1014.75</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="28">
+        <f t="shared" si="0"/>
+        <v>370457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="7">
+        <v>271.81</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="28">
+        <f t="shared" si="0"/>
+        <v>190541.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="9">
+        <f>SUM(B3:B6)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="21">
+        <f>B7*C3</f>
+        <v>1197000</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(D3:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <f>D7*E3</f>
+        <v>81875</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUM(F3:F6)</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="21">
+        <f>G3*F7</f>
+        <v>130240</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H3:H6)</f>
+        <v>3473.36</v>
+      </c>
+      <c r="I7" s="21">
+        <f>I3*H7</f>
+        <v>41680.32</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="30">
+        <f>SUM(L3:L6)</f>
+        <v>1450795.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11">
+        <f>C7</f>
+        <v>1197000</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23">
+        <f>E7</f>
+        <v>81875</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11">
+        <f>G7</f>
+        <v>130240</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11">
+        <f>I7</f>
+        <v>41680.32</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="31">
+        <f>C8+E8+G8+I8+K8+K8</f>
+        <v>1450795.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,12 +1184,16 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -873,25 +1224,25 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>3.5</v>
       </c>
-      <c r="C2" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
         <f>B2*$C$2</f>
         <v>21</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2">
@@ -909,23 +1260,23 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>102</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>5.8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D15" si="0">B3*$C$2</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -937,20 +1288,23 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>103</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -962,20 +1316,23 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>104</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>8.5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -987,20 +1344,23 @@
       <c r="J5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>105</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>3.7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>22.200000000000003</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="H6" t="s">
@@ -1012,20 +1372,23 @@
       <c r="J6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>106</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>2.5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
       <c r="H7" t="s">
@@ -1037,20 +1400,23 @@
       <c r="J7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>107</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>52.199999999999996</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
@@ -1062,20 +1428,23 @@
       <c r="J8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>108</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>5.8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>6</v>
       </c>
       <c r="H9" t="s">
@@ -1087,20 +1456,23 @@
       <c r="J9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>109</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>5.8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
       <c r="H10" t="s">
@@ -1112,20 +1484,23 @@
       <c r="J10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>110</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>2.8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -1137,20 +1512,23 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>111</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>5.8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>6</v>
       </c>
       <c r="H12" t="s">
@@ -1162,20 +1540,23 @@
       <c r="J12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>112</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>5.8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>6</v>
       </c>
       <c r="H13" t="s">
@@ -1187,20 +1568,23 @@
       <c r="J13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>113</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>5.8</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>6</v>
       </c>
       <c r="H14" t="s">
@@ -1212,20 +1596,23 @@
       <c r="J14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>114</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>10</v>
       </c>
       <c r="H15" t="s">
@@ -1237,21 +1624,24 @@
       <c r="J15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>SUM(B2:B15)</f>
         <v>82.899999999999991</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
         <f>SUM(D2:D15)</f>
         <v>497.40000000000003</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <f>SUM(E2:E15)</f>
         <v>54</v>
       </c>
@@ -1264,7 +1654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1296,19 +1686,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>201</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <f t="shared" ref="D19:D31" si="1">B19*$C$2</f>
         <v>53.820000000000007</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
       <c r="F19">
@@ -1326,20 +1716,23 @@
       <c r="J19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>202</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>53.820000000000007</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0</v>
       </c>
       <c r="H20" t="s">
@@ -1351,20 +1744,23 @@
       <c r="J20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>203</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>8.74</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>52.44</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>10</v>
       </c>
       <c r="H21" t="s">
@@ -1376,20 +1772,23 @@
       <c r="J21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>204</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>6.44</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>38.64</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>7</v>
       </c>
       <c r="H22" t="s">
@@ -1401,20 +1800,23 @@
       <c r="J22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>205</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>5.75</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>6</v>
       </c>
       <c r="H23" t="s">
@@ -1426,20 +1828,23 @@
       <c r="J23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>206</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>3</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0</v>
       </c>
       <c r="H24" t="s">
@@ -1451,20 +1856,23 @@
       <c r="J24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>207</v>
       </c>
-      <c r="B25" s="17">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="B25" s="16">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>6</v>
       </c>
       <c r="H25" t="s">
@@ -1476,20 +1884,23 @@
       <c r="J25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>208</v>
       </c>
-      <c r="B26" s="17">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="B26" s="16">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>2</v>
       </c>
       <c r="H26" t="s">
@@ -1501,20 +1912,23 @@
       <c r="J26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>209</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>3</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>3</v>
       </c>
       <c r="H27" t="s">
@@ -1526,20 +1940,23 @@
       <c r="J27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="K27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>210</v>
       </c>
-      <c r="B28" s="17">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="B28" s="16">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>6</v>
       </c>
       <c r="H28" t="s">
@@ -1551,20 +1968,23 @@
       <c r="J28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>211</v>
       </c>
-      <c r="B29" s="17">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="B29" s="16">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>6</v>
       </c>
       <c r="H29" t="s">
@@ -1576,20 +1996,23 @@
       <c r="J29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>212</v>
       </c>
-      <c r="B30" s="17">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
+      <c r="B30" s="16">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>6</v>
       </c>
       <c r="H30" t="s">
@@ -1601,20 +2024,23 @@
       <c r="J30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>213</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
         <f t="shared" si="1"/>
         <v>53.820000000000007</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>10</v>
       </c>
       <c r="H31" t="s">
@@ -1626,21 +2052,24 @@
       <c r="J31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="K31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <f>SUM(B19:B31)</f>
         <v>83.84</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13">
         <f>SUM(D19:D31)</f>
         <v>503.04</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <f>SUM(E19:E31)</f>
         <v>64</v>
       </c>
@@ -1653,7 +2082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1685,19 +2114,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>301</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>5.8</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
         <f t="shared" ref="D35:D48" si="2">B35*$C$2</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>6</v>
       </c>
       <c r="F35">
@@ -1715,20 +2144,23 @@
       <c r="J35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="K35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>302</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>2.9</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -1740,20 +2172,23 @@
       <c r="J36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>303</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -1765,20 +2200,23 @@
       <c r="J37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>304</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>5</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>5</v>
       </c>
       <c r="H38" t="s">
@@ -1790,120 +2228,135 @@
       <c r="J38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="K38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>305</v>
       </c>
-      <c r="B39" s="17">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+      <c r="B39" s="16">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E39" s="9">
-        <v>6</v>
+      <c r="E39" s="8">
+        <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>306</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>2.9</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="E40" s="9">
-        <v>3</v>
+      <c r="E40" s="8">
+        <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+        <v>35</v>
+      </c>
+      <c r="K40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>307</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>2.9</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>308</v>
       </c>
-      <c r="B42" s="17">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
+      <c r="B42" s="16">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E42" s="9">
-        <v>2</v>
+      <c r="E42" s="8">
+        <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+        <v>56</v>
+      </c>
+      <c r="K42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>309</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>5.9</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
         <f t="shared" si="2"/>
         <v>35.400000000000006</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>6</v>
       </c>
       <c r="H43" t="s">
@@ -1915,20 +2368,23 @@
       <c r="J43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="K43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>310</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>9</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>10</v>
       </c>
       <c r="H44" t="s">
@@ -1940,20 +2396,23 @@
       <c r="J44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="K44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>311</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>5.7</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
         <f t="shared" si="2"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>3</v>
       </c>
       <c r="H45" t="s">
@@ -1965,21 +2424,24 @@
       <c r="J45" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="K45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>312</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>2.7</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
         <f t="shared" si="2"/>
         <v>16.200000000000003</v>
       </c>
-      <c r="E46" s="9">
-        <v>3</v>
+      <c r="E46" s="8">
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
@@ -1990,20 +2452,23 @@
       <c r="J46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>313</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>9</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>10</v>
       </c>
       <c r="H47" t="s">
@@ -2015,20 +2480,23 @@
       <c r="J47" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="K47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>314</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="17">
         <v>9</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>2</v>
       </c>
       <c r="H48" t="s">
@@ -2040,34 +2508,37 @@
       <c r="J48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <f>SUM(B35:B48)</f>
         <v>82</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10">
         <f>SUM(D35:D48)</f>
         <v>492</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <f>SUM(E35:E48)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <f>E49+F35</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G49">
         <f>F49+G35</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2099,19 +2570,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>401</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>3.45</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
         <f>B52*$C$2</f>
         <v>20.700000000000003</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52">
@@ -2129,20 +2600,23 @@
       <c r="J52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>402</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>5.52</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
         <f>B53*$C$2</f>
         <v>33.119999999999997</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>1</v>
       </c>
       <c r="H53" t="s">
@@ -2152,22 +2626,25 @@
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+        <v>83</v>
+      </c>
+      <c r="K53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>403</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
         <f t="shared" ref="D54:D61" si="3">B54*$C$2</f>
         <v>53.820000000000007</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>0</v>
       </c>
       <c r="H54" t="s">
@@ -2179,20 +2656,23 @@
       <c r="J54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>404</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>8.74</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
         <f t="shared" si="3"/>
         <v>52.44</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>2</v>
       </c>
       <c r="H55" t="s">
@@ -2202,22 +2682,25 @@
         <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+        <v>62</v>
+      </c>
+      <c r="K55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>405</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>3.68</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
         <f t="shared" si="3"/>
         <v>22.080000000000002</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>2</v>
       </c>
       <c r="H56" t="s">
@@ -2229,20 +2712,23 @@
       <c r="J56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="K56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>406</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>2.76</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
         <f t="shared" si="3"/>
         <v>16.559999999999999</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>3</v>
       </c>
       <c r="H57" t="s">
@@ -2254,20 +2740,23 @@
       <c r="J57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="K57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>407</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>8.74</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
         <f t="shared" si="3"/>
         <v>52.44</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>2</v>
       </c>
       <c r="H58" t="s">
@@ -2279,20 +2768,23 @@
       <c r="J58" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="K58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>408</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>12</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>2</v>
       </c>
       <c r="H59" t="s">
@@ -2302,22 +2794,25 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+        <v>63</v>
+      </c>
+      <c r="K59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>409</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
         <f t="shared" si="3"/>
         <v>55.199999999999996</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>2</v>
       </c>
       <c r="H60" t="s">
@@ -2327,22 +2822,25 @@
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+        <v>64</v>
+      </c>
+      <c r="K60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>410</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>12</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>2</v>
       </c>
       <c r="H61" t="s">
@@ -2352,22 +2850,25 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+        <v>65</v>
+      </c>
+      <c r="K61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>411</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
         <f>B62*$C$2</f>
         <v>55.199999999999996</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>2</v>
       </c>
       <c r="H62" t="s">
@@ -2377,23 +2878,26 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <f>SUM(B52:B62)</f>
         <v>84.26</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13">
         <f>SUM(D52:D62)</f>
         <v>505.56</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <f>SUM(E52:E62)</f>
         <v>18</v>
       </c>
@@ -2406,269 +2910,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
       <c r="E66">
         <f>E63+E49+E16+E32</f>
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F66">
         <f>F63+F49+F32+F16</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G66">
         <f>G63+G49+G32+G16</f>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N67" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F69" s="4"/>
-      <c r="G69" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L69" s="23"/>
-      <c r="M69" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N69" s="23"/>
-      <c r="O69" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P69" s="23"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="8"/>
-      <c r="G70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="O70" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="P70" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F71" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" s="8">
-        <v>2</v>
-      </c>
-      <c r="H71" s="24">
-        <v>171000</v>
-      </c>
-      <c r="I71" s="8">
-        <v>1</v>
-      </c>
-      <c r="J71" s="33">
-        <v>81875</v>
-      </c>
-      <c r="K71" s="8">
-        <v>5</v>
-      </c>
-      <c r="L71" s="24">
-        <v>16280</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="30"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F72" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="8">
-        <v>2</v>
-      </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" s="33"/>
-      <c r="K72" s="8">
-        <v>1</v>
-      </c>
-      <c r="L72" s="24"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="30"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F73" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" s="8">
-        <v>2</v>
-      </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="8">
-        <v>0</v>
-      </c>
-      <c r="J73" s="33"/>
-      <c r="K73" s="8">
-        <v>1</v>
-      </c>
-      <c r="L73" s="24"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="30"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" s="8">
-        <v>1</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="8">
-        <v>0</v>
-      </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="8">
-        <v>1</v>
-      </c>
-      <c r="L74" s="24"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="30"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="10">
-        <f>SUM(G71:G74)</f>
-        <v>7</v>
-      </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="10">
-        <f>SUM(I71:I74)</f>
-        <v>1</v>
-      </c>
-      <c r="J75" s="34"/>
-      <c r="K75" s="10">
-        <f>SUM(K71:K74)</f>
-        <v>8</v>
-      </c>
-      <c r="L75" s="29"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="31"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F76" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="12">
-        <f>G75*H71</f>
-        <v>1197000</v>
-      </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12">
-        <f>I75*J71</f>
-        <v>81875</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="12">
-        <f>K75*L71</f>
-        <v>130240</v>
-      </c>
-      <c r="M76" s="10"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="12"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N77" s="2">
-        <f>H76+J76+L76</f>
-        <v>1409115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L78" s="26"/>
-    </row>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="19"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+    </row>
+    <row r="78" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="N71:N75"/>
-    <mergeCell ref="P71:P75"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="H71:H75"/>
+  <mergeCells count="1">
     <mergeCell ref="A68:D68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="L71:L75"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K78" r:id="rId1" tooltip="Трансивер Cisco GLC-FE-100EX=" display="http://cisco.msk.ru/aktivnoe-oborudovanie/setevye-transivernye-moduli/GLC-FE-100EX="/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -96,9 +95,6 @@
     <t>Резерв</t>
   </si>
   <si>
-    <t>192.168.51.1/24</t>
-  </si>
-  <si>
     <t>192.168.52.1/24</t>
   </si>
   <si>
@@ -108,12 +104,6 @@
     <t>192.168.54.1/24</t>
   </si>
   <si>
-    <t>192.168.101.1/24</t>
-  </si>
-  <si>
-    <t>192.168.101.2/24</t>
-  </si>
-  <si>
     <t>192.168.102.1/24</t>
   </si>
   <si>
@@ -132,24 +122,6 @@
     <t>192.168.104.2/24</t>
   </si>
   <si>
-    <t>192.168.11.1-10/24</t>
-  </si>
-  <si>
-    <t>192.168.11.11-16/24</t>
-  </si>
-  <si>
-    <t>192.168.11.17-22/24</t>
-  </si>
-  <si>
-    <t>192.168.11.23-38/24</t>
-  </si>
-  <si>
-    <t>192.168.11.29-33/24</t>
-  </si>
-  <si>
-    <t>192.168.11.34-43/24</t>
-  </si>
-  <si>
     <t>192.168.22.1-10/24</t>
   </si>
   <si>
@@ -198,9 +170,6 @@
     <t>192.168.33.37-46/24</t>
   </si>
   <si>
-    <t>192.168.61.1-3/24</t>
-  </si>
-  <si>
     <t>192.168.62.1-3/24</t>
   </si>
   <si>
@@ -286,6 +255,36 @@
   </si>
   <si>
     <t>группа 8, 9</t>
+  </si>
+  <si>
+    <t>192.168.101.2/28</t>
+  </si>
+  <si>
+    <t>192.168.11.23-38/28</t>
+  </si>
+  <si>
+    <t>192.168.11.29-33/28</t>
+  </si>
+  <si>
+    <t>192.168.11.34-43/28</t>
+  </si>
+  <si>
+    <t>192.168.101.18/28</t>
+  </si>
+  <si>
+    <t>192.168.51.2-3/28</t>
+  </si>
+  <si>
+    <t>192.168.11.2-11/28</t>
+  </si>
+  <si>
+    <t>192.168.11.18-23/28</t>
+  </si>
+  <si>
+    <t>192.168.61.2-4/28</t>
+  </si>
+  <si>
+    <t>192.168.11.34-39/28</t>
   </si>
 </sst>
 </file>
@@ -880,66 +879,66 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="33" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="33" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E1" s="34"/>
       <c r="F1" s="33" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G1" s="34"/>
       <c r="H1" s="33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I1" s="34"/>
       <c r="J1" s="38" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K1" s="34"/>
       <c r="L1" s="28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -974,7 +973,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1001,7 +1000,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -1028,7 +1027,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -1055,7 +1054,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B7" s="9">
         <f>SUM(B3:B6)</f>
@@ -1098,7 +1097,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="11">
@@ -1132,15 +1131,15 @@
     </row>
     <row r="10" spans="1:12" s="32" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
@@ -1175,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,10 +1369,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1426,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1482,10 +1481,10 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1538,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,15 +1621,15 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B16" s="18">
         <f>SUM(B2:B15)</f>
@@ -1714,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1770,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,10 +1825,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1938,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2050,15 +2049,15 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B32" s="18">
         <f>SUM(B19:B31)</f>
@@ -2142,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2254,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,10 +2281,10 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2310,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2338,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2366,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2394,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2422,10 +2421,10 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2478,10 +2477,10 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2506,15 +2505,15 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B49" s="17">
         <f>SUM(B35:B48)</f>
@@ -2626,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2682,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2710,10 +2709,10 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2738,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2766,10 +2765,10 @@
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2822,10 +2821,10 @@
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2878,15 +2877,15 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B63" s="18">
         <f>SUM(B52:B62)</f>
@@ -2937,7 +2936,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -2951,16 +2950,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Сети/курсач/курсач.xlsx
+++ b/Сети/курсач/курсач.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
   <si>
     <t>основной шлюз</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>192.168.11.34-39/28</t>
+  </si>
+  <si>
+    <t>UTP4-C6-SOLID-GY</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +962,7 @@
         <v>16280</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>1871</v>
       </c>
       <c r="I3" s="39">
         <v>12</v>
@@ -968,7 +971,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="28">
         <f>$C$3*B3+$E$3*D3+$G$3*F3+$I$3*H3+$K$3*J3</f>
-        <v>518487</v>
+        <v>527727</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,14 +991,14 @@
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="7">
-        <v>1085.8</v>
+        <v>1958.3</v>
       </c>
       <c r="I4" s="40"/>
       <c r="J4" s="1"/>
       <c r="K4" s="35"/>
       <c r="L4" s="28">
         <f t="shared" ref="L4:L6" si="0">$C$3*B4+$E$3*D4+$G$3*F4+$I$3*H4+$K$3*J4</f>
-        <v>371309.6</v>
+        <v>381779.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1015,14 +1018,14 @@
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="7">
-        <v>1014.75</v>
+        <v>1634.75</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="1"/>
       <c r="K5" s="35"/>
       <c r="L5" s="28">
         <f t="shared" si="0"/>
-        <v>370457</v>
+        <v>377897</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,14 +1045,14 @@
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="7">
-        <v>271.81</v>
+        <v>451.81</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="1"/>
       <c r="K6" s="35"/>
       <c r="L6" s="28">
         <f t="shared" si="0"/>
-        <v>190541.72</v>
+        <v>192701.72</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,17 +1085,17 @@
       </c>
       <c r="H7" s="9">
         <f>SUM(H3:H6)</f>
-        <v>3473.36</v>
+        <v>5915.8600000000006</v>
       </c>
       <c r="I7" s="21">
         <f>I3*H7</f>
-        <v>41680.32</v>
+        <v>70990.320000000007</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="24"/>
       <c r="L7" s="30">
         <f>SUM(L3:L6)</f>
-        <v>1450795.32</v>
+        <v>1480105.32</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,35 +1120,43 @@
       <c r="H8" s="9"/>
       <c r="I8" s="11">
         <f>I7</f>
-        <v>41680.32</v>
+        <v>70990.320000000007</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
       <c r="L8" s="31">
         <f>C8+E8+G8+I8+K8+K8</f>
-        <v>1450795.32</v>
+        <v>1480105.32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" s="32" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>H7+H7*0.1</f>
+        <v>6507.4460000000008</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1175,7 +1186,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,6 +1664,12 @@
         <v>62</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="19">
+        <f>AVERAGE(D2:D15)</f>
+        <v>35.528571428571432</v>
+      </c>
+    </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
